--- a/User Stories.xlsx
+++ b/User Stories.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>Feature</t>
   </si>
@@ -135,9 +135,6 @@
     <t>I can see other users information</t>
   </si>
   <si>
-    <t xml:space="preserve"> change my password</t>
-  </si>
-  <si>
     <t>I can stay secure</t>
   </si>
   <si>
@@ -145,6 +142,54 @@
   </si>
   <si>
     <t>I don't have to log in every single time I launch the program</t>
+  </si>
+  <si>
+    <t>Achievements</t>
+  </si>
+  <si>
+    <t>Leaderboard</t>
+  </si>
+  <si>
+    <t>User Statistics</t>
+  </si>
+  <si>
+    <t>Past Test Results</t>
+  </si>
+  <si>
+    <t>Leveling System</t>
+  </si>
+  <si>
+    <t>View User Profile</t>
+  </si>
+  <si>
+    <t>change my password</t>
+  </si>
+  <si>
+    <t>Password Change</t>
+  </si>
+  <si>
+    <t>Store Login Token</t>
+  </si>
+  <si>
+    <t>earn title rank</t>
+  </si>
+  <si>
+    <t>I will earn a title when I achieve a specified requirement</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Title System</t>
+  </si>
+  <si>
+    <t>Sort Leaderboard</t>
+  </si>
+  <si>
+    <t>sort the leaderboard with time range</t>
+  </si>
+  <si>
+    <t>to see how other users have done recently or all time</t>
   </si>
 </sst>
 </file>
@@ -535,18 +580,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.25" bestFit="1" customWidth="1"/>
@@ -604,16 +650,16 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -621,16 +667,16 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -638,16 +684,16 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -655,16 +701,16 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -672,116 +718,189 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
       </c>
       <c r="E10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
-        <v>41</v>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
